--- a/config_6.8/fake_broadcast_server.xlsx
+++ b/config_6.8/fake_broadcast_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -56,31 +56,166 @@
     <t>permission|权限</t>
   </si>
   <si>
+    <t>user_shoping_gold_pay</t>
+  </si>
+  <si>
+    <t>VIVO手机</t>
+  </si>
+  <si>
+    <t>tthlby_all_pmd</t>
+  </si>
+  <si>
+    <t>byam_all_pmd</t>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+  </si>
+  <si>
+    <t>金龙鱼玉米油4L</t>
+  </si>
+  <si>
+    <t>50元话费</t>
+  </si>
+  <si>
+    <t>100元话费</t>
+  </si>
+  <si>
+    <t>100元京东E卡</t>
+  </si>
+  <si>
+    <t>200元京东E卡</t>
+  </si>
+  <si>
+    <t>300元京东E卡</t>
+  </si>
+  <si>
+    <t>luck_lottery_1</t>
+  </si>
+  <si>
+    <t>4750福利券</t>
+  </si>
+  <si>
+    <t>40万福利券</t>
+  </si>
+  <si>
+    <t>1亿金币</t>
+  </si>
+  <si>
+    <t>luck_lottery_2</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_award_big_award</t>
+  </si>
+  <si>
+    <t>1000万~5亿金币</t>
+  </si>
+  <si>
+    <t>guess_award_big_award</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award_big_award</t>
+  </si>
+  <si>
+    <t>1000万～3亿金币</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award_big_award</t>
+  </si>
+  <si>
+    <t>tantanle_award_big_award</t>
+  </si>
+  <si>
+    <t>1000万~2亿金币</t>
+  </si>
+  <si>
+    <t>qiaoqiaole_award_big_award</t>
+  </si>
+  <si>
+    <t>1200万金币</t>
+  </si>
+  <si>
+    <t>1800万金币</t>
+  </si>
+  <si>
+    <t>2400万金币</t>
+  </si>
+  <si>
+    <t>3800万金币</t>
+  </si>
+  <si>
+    <t>4200万金币</t>
+  </si>
+  <si>
+    <t>qiaoqiaole_award_caishen</t>
+  </si>
+  <si>
+    <t>1000万金币</t>
+  </si>
+  <si>
+    <t>jykp_big_award</t>
+  </si>
+  <si>
+    <t>6000万～8亿金币</t>
+  </si>
+  <si>
+    <t>1000万～2000万金币</t>
+  </si>
+  <si>
+    <t>2000万～2500万金币</t>
+  </si>
+  <si>
+    <t>2500万～3000万金币</t>
+  </si>
+  <si>
+    <t>3000万～3500万金币</t>
+  </si>
+  <si>
+    <t>3500万～4000万金币</t>
+  </si>
+  <si>
+    <t>4000万～4500万金币</t>
+  </si>
+  <si>
+    <t>4500万金币～5000万金币</t>
+  </si>
+  <si>
+    <t>5000万金币～1亿金币</t>
+  </si>
+  <si>
+    <t>1亿金币～1.5亿金币</t>
+  </si>
+  <si>
+    <t>1.5亿金币～2亿金币</t>
+  </si>
+  <si>
+    <t>2亿金币～2.5亿金币</t>
+  </si>
+  <si>
+    <t>2.5亿金币～3亿金币</t>
+  </si>
+  <si>
+    <t>3亿金币～3.5亿金币</t>
+  </si>
+  <si>
+    <t>3.5亿金币～4亿金币</t>
+  </si>
+  <si>
+    <t>4亿金币～4.5亿金币</t>
+  </si>
+  <si>
+    <t>4.5亿金币～5亿金币</t>
+  </si>
+  <si>
+    <t>5亿金币～5.5亿金币</t>
+  </si>
+  <si>
     <t>xiaoxiaole_sanguo_award_big_award</t>
   </si>
   <si>
-    <t>10000000,20000000</t>
-  </si>
-  <si>
-    <t>hlby</t>
-  </si>
-  <si>
-    <t>user_shoping_gold_pay</t>
-  </si>
-  <si>
-    <t>VIVO手机</t>
-  </si>
-  <si>
-    <t>byam</t>
-  </si>
-  <si>
-    <t>fish_game_3d_kill_boss_1</t>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-  </si>
-  <si>
-    <t>xiaoxiaole_award_big_award</t>
+    <t>lwzb_award_big_award</t>
+  </si>
+  <si>
+    <t>qiaoqiaole_cjj_award_big_award</t>
   </si>
 </sst>
 </file>
@@ -88,12 +223,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,10 +243,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,6 +280,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,6 +321,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -146,21 +344,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,14 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -190,8 +366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,41 +383,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,14 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,197 +414,254 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,18 +697,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,21 +711,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +729,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,137 +749,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,16 +895,34 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,7 +1293,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1121,10 +1309,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1164,14 +1352,14 @@
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="7">
-        <v>100</v>
-      </c>
-      <c r="F2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1182,15 +1370,15 @@
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="7">
-        <v>100</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
+        <v>116</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1198,17 +1386,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="7">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1216,17 +1404,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="7">
-        <v>100</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1234,17 +1422,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="7">
-        <v>100</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>116</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1252,17 +1440,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="7">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1270,412 +1458,1203 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="7">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="7">
+        <v>116</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7">
+        <v>116</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="7">
+        <v>116</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="7">
+        <v>116</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="7">
+        <v>116</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>116</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="7">
+        <v>116</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="7">
+        <v>116</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="7">
+        <v>116</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7">
+        <v>116</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="7">
+        <v>116</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="7">
+        <v>116</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="7">
+        <v>116</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="7">
+        <v>116</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="7">
+        <v>116</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="7">
+        <v>116</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="7">
+        <v>116</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="7">
+        <v>116</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="7">
+        <v>116</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="7">
+        <v>116</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="7">
+        <v>116</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="7">
+        <v>116</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="7">
+        <v>116</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="7">
+        <v>116</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="7">
+        <v>116</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="7">
+        <v>116</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="4"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="B35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2081</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2081</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="4"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="B37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2081</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="4"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="B38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="7">
+        <v>2081</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="4"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="B39" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="7">
+        <v>520</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="4"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="B40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="7">
+        <v>520</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="4"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="B41" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="7">
+        <v>520</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="4"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="B42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="7">
+        <v>520</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="4"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="B43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="7">
+        <v>216</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="4"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="B44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="7">
+        <v>216</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="4"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="B45" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="7">
+        <v>116</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="4"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="B46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="7">
+        <v>116</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="4"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="B47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="7">
+        <v>116</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="E48" s="7">
+        <v>116</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="4"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="B49" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="7">
+        <v>116</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="4"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="B50" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="7">
+        <v>116</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="4"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="B51" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="7">
+        <v>116</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="4"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="B52" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="7">
+        <v>116</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="4"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="B53" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="7">
+        <v>116</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="4"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="B54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="7">
+        <v>116</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="4"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="B55" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="7">
+        <v>578</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="4"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="B56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="7">
+        <v>578</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="4"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="B57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="7">
+        <v>421</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="4"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="B58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="7">
+        <v>421</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="4"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="B59" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="7">
+        <v>116</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="4"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="5:6">
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="B60" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="7">
+        <v>116</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="7">
+        <v>116</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="7">
+        <v>116</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="7">
+        <v>116</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="7">
+        <v>116</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="7">
+        <v>116</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="7">
+        <v>116</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="7">
+        <v>116</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="7">
+        <v>116</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="7">
+        <v>116</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="7">
+        <v>116</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="7">
+        <v>116</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" s="7">
+        <v>116</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="7">
+        <v>116</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="7">
+        <v>116</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="7">
+        <v>116</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="2">
+        <v>980</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1280</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="2">
+        <v>950</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1081</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1016</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="7">
+        <v>116</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="7">
+        <v>116</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="7">
+        <v>116</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="7">
+        <v>116</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="7">
+        <v>116</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="2">
+        <v>573</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="2">
+        <v>421</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_6.8/fake_broadcast_server.xlsx
+++ b/config_6.8/fake_broadcast_server.xlsx
@@ -223,12 +223,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,22 +243,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -270,14 +259,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +287,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -299,60 +303,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,25 +327,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,8 +364,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,19 +396,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,97 +552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,68 +580,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -613,53 +595,7 @@
       <top style="thin">
         <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -676,6 +612,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +657,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -715,16 +673,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -737,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,137 +707,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,34 +850,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1293,7 +1224,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1309,10 +1240,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1329,7 +1260,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1338,10 +1269,10 @@
       <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1349,17 +1280,17 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="7">
-        <v>116</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="4">
+        <v>116</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1367,17 +1298,17 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="7">
-        <v>116</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="4">
+        <v>116</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1385,17 +1316,17 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="7">
-        <v>116</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="4">
+        <v>116</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1403,17 +1334,17 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="7">
-        <v>116</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="4">
+        <v>116</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1421,17 +1352,17 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="7">
-        <v>116</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="4">
+        <v>116</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1439,17 +1370,17 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="7">
-        <v>116</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="4">
+        <v>116</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1457,1204 +1388,1455 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="7">
-        <v>116</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="4">
+        <v>116</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="7">
-        <v>116</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="4">
+        <v>116</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="7">
-        <v>116</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="4">
+        <v>116</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="7">
-        <v>116</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="4">
+        <v>116</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="7">
-        <v>116</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="4">
+        <v>116</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="7">
-        <v>116</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="4">
+        <v>116</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="7">
-        <v>116</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="4">
+        <v>116</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="7">
-        <v>116</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="4">
+        <v>116</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="7">
-        <v>116</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="4">
+        <v>116</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="7">
-        <v>116</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="4">
+        <v>116</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="7">
-        <v>116</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="4">
+        <v>116</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="7">
-        <v>116</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="4">
+        <v>116</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="7">
-        <v>116</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="4">
+        <v>116</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="7">
-        <v>116</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="4">
+        <v>116</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="7">
-        <v>116</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="4">
+        <v>116</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="7">
-        <v>116</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="4">
+        <v>116</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="7">
-        <v>116</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="4">
+        <v>116</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="7">
-        <v>116</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="4">
+        <v>116</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="7">
-        <v>116</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="4">
+        <v>116</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="7">
-        <v>116</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="4">
+        <v>116</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="7">
-        <v>116</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="4">
+        <v>116</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="2"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="7">
-        <v>116</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="4">
+        <v>116</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="7">
-        <v>116</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="4">
+        <v>116</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="7">
-        <v>116</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="4">
+        <v>116</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="2"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="7">
-        <v>116</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="4">
+        <v>116</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="2"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="7">
-        <v>116</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="4">
+        <v>116</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="2"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="7">
-        <v>116</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="4">
+        <v>116</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="2"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="4">
         <v>2081</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="2"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="4">
         <v>2081</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="2"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="4">
         <v>2081</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="2"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="4">
         <v>2081</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="2"/>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="4">
         <v>520</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="2"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="4">
         <v>520</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="4">
         <v>520</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2"/>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="4">
         <v>520</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="4">
         <v>216</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="4">
         <v>216</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="7">
-        <v>116</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4">
+        <v>116</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="2"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="7">
-        <v>116</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4">
+        <v>116</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="7">
-        <v>116</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4">
+        <v>116</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="2"/>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="7">
-        <v>116</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="E48" s="4">
+        <v>116</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2"/>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="7">
-        <v>116</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4">
+        <v>116</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="2"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="7">
-        <v>116</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4">
+        <v>116</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="2"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="7">
-        <v>116</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4">
+        <v>116</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="2"/>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="7">
-        <v>116</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4">
+        <v>116</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="2"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="7">
-        <v>116</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4">
+        <v>116</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="2"/>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="7">
-        <v>116</v>
-      </c>
-      <c r="F54" s="8" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4">
+        <v>116</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="2"/>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="7">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4">
         <v>578</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="2"/>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="7">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4">
         <v>578</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="2"/>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="4">
         <v>421</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="2"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="4">
         <v>421</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="2"/>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="7">
-        <v>116</v>
-      </c>
-      <c r="F59" s="7" t="s">
+      <c r="E59" s="4">
+        <v>116</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="2"/>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E60" s="7">
-        <v>116</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="11" t="s">
+      <c r="E60" s="4">
+        <v>116</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="7">
-        <v>116</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="11" t="s">
+      <c r="E61" s="4">
+        <v>116</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="7">
-        <v>116</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="11" t="s">
+      <c r="E62" s="4">
+        <v>116</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E63" s="7">
-        <v>116</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="11" t="s">
+      <c r="E63" s="4">
+        <v>116</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="7">
-        <v>116</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="11" t="s">
+      <c r="E64" s="4">
+        <v>116</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="7">
-        <v>116</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="11" t="s">
+      <c r="E65" s="4">
+        <v>116</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="7">
-        <v>116</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="11" t="s">
+      <c r="E66" s="4">
+        <v>116</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="7">
-        <v>116</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="11" t="s">
+      <c r="E67" s="4">
+        <v>116</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="7">
-        <v>116</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="11" t="s">
+      <c r="E68" s="4">
+        <v>116</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="7">
-        <v>116</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="11" t="s">
+      <c r="E69" s="4">
+        <v>116</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="7">
-        <v>116</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="11" t="s">
+      <c r="E70" s="4">
+        <v>116</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E71" s="7">
-        <v>116</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="11" t="s">
+      <c r="E71" s="4">
+        <v>116</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E72" s="7">
-        <v>116</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="11" t="s">
+      <c r="E72" s="4">
+        <v>116</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="7">
-        <v>116</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="11" t="s">
+      <c r="E73" s="4">
+        <v>116</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="7">
-        <v>116</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="11" t="s">
+      <c r="E74" s="4">
+        <v>116</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E75" s="7">
-        <v>116</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="11" t="s">
+      <c r="E75" s="4">
+        <v>116</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="4">
         <v>980</v>
       </c>
-      <c r="F76" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="5" t="s">
+      <c r="F76" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="4">
         <v>1280</v>
       </c>
-      <c r="F77" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="11" t="s">
+      <c r="F77" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="4"/>
+      <c r="D78" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="4">
         <v>950</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="11" t="s">
+      <c r="F78" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="4">
         <v>1081</v>
       </c>
-      <c r="F79" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="5" t="s">
+      <c r="F79" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="4">
         <v>1016</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="11" t="s">
+      <c r="F80" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="7">
-        <v>116</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="11" t="s">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4">
+        <v>116</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="7">
-        <v>116</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="11" t="s">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4">
+        <v>116</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E83" s="7">
-        <v>116</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="11" t="s">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4">
+        <v>116</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="7">
-        <v>116</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="11" t="s">
+      <c r="D84" s="4"/>
+      <c r="E84" s="4">
+        <v>116</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="7">
-        <v>116</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="11" t="s">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4">
+        <v>116</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E86" s="2">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4">
         <v>573</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="5" t="s">
+      <c r="F86" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="4"/>
+      <c r="D87" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="4">
         <v>421</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="F87" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_6.8/fake_broadcast_server.xlsx
+++ b/config_6.8/fake_broadcast_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -107,28 +107,103 @@
     <t>xiaoxiaole_award_big_award</t>
   </si>
   <si>
+    <t>10000000~500000000</t>
+  </si>
+  <si>
+    <t>guess_award_big_award</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award_big_award</t>
+  </si>
+  <si>
+    <t>10000000~300000000</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award_big_award</t>
+  </si>
+  <si>
+    <t>tantanle_award_big_award</t>
+  </si>
+  <si>
+    <t>10000000~200000000</t>
+  </si>
+  <si>
+    <t>qiaoqiaole_award_big_award</t>
+  </si>
+  <si>
+    <t>qiaoqiaole_award_caishen</t>
+  </si>
+  <si>
+    <t>jykp_big_award</t>
+  </si>
+  <si>
+    <t>60000000~800000000</t>
+  </si>
+  <si>
+    <t>10000000~20000000</t>
+  </si>
+  <si>
+    <t>20000000~25000000</t>
+  </si>
+  <si>
+    <t>25000000~30000000</t>
+  </si>
+  <si>
+    <t>30000000~35000000</t>
+  </si>
+  <si>
+    <t>35000000~40000000</t>
+  </si>
+  <si>
+    <t>40000000~45000000</t>
+  </si>
+  <si>
+    <t>45000000~50000000</t>
+  </si>
+  <si>
+    <t>50000000~100000000</t>
+  </si>
+  <si>
+    <t>100000000~150000000</t>
+  </si>
+  <si>
+    <t>150000000~200000000</t>
+  </si>
+  <si>
+    <t>200000000~250000000</t>
+  </si>
+  <si>
+    <t>250000000~300000000</t>
+  </si>
+  <si>
+    <t>300000000~350000000</t>
+  </si>
+  <si>
+    <t>350000000~400000000</t>
+  </si>
+  <si>
+    <t>400000000~450000000</t>
+  </si>
+  <si>
+    <t>450000000~500000000</t>
+  </si>
+  <si>
+    <t>500000000~550000000</t>
+  </si>
+  <si>
     <t>1000万~5亿金币</t>
   </si>
   <si>
-    <t>guess_award_big_award</t>
-  </si>
-  <si>
-    <t>xiaoxiaole_shuihu_award_big_award</t>
+    <t>xiaoxiaole_sanguo_award_big_award</t>
   </si>
   <si>
     <t>1000万～3亿金币</t>
   </si>
   <si>
-    <t>xiaoxiaole_xiyou_award_big_award</t>
-  </si>
-  <si>
-    <t>tantanle_award_big_award</t>
-  </si>
-  <si>
-    <t>1000万~2亿金币</t>
-  </si>
-  <si>
-    <t>qiaoqiaole_award_big_award</t>
+    <t>lwzb_award_big_award</t>
+  </si>
+  <si>
+    <t>qiaoqiaole_cjj_award_big_award</t>
   </si>
   <si>
     <t>1200万金币</t>
@@ -146,76 +221,10 @@
     <t>4200万金币</t>
   </si>
   <si>
-    <t>qiaoqiaole_award_caishen</t>
-  </si>
-  <si>
     <t>1000万金币</t>
   </si>
   <si>
-    <t>jykp_big_award</t>
-  </si>
-  <si>
     <t>6000万～8亿金币</t>
-  </si>
-  <si>
-    <t>1000万～2000万金币</t>
-  </si>
-  <si>
-    <t>2000万～2500万金币</t>
-  </si>
-  <si>
-    <t>2500万～3000万金币</t>
-  </si>
-  <si>
-    <t>3000万～3500万金币</t>
-  </si>
-  <si>
-    <t>3500万～4000万金币</t>
-  </si>
-  <si>
-    <t>4000万～4500万金币</t>
-  </si>
-  <si>
-    <t>4500万金币～5000万金币</t>
-  </si>
-  <si>
-    <t>5000万金币～1亿金币</t>
-  </si>
-  <si>
-    <t>1亿金币～1.5亿金币</t>
-  </si>
-  <si>
-    <t>1.5亿金币～2亿金币</t>
-  </si>
-  <si>
-    <t>2亿金币～2.5亿金币</t>
-  </si>
-  <si>
-    <t>2.5亿金币～3亿金币</t>
-  </si>
-  <si>
-    <t>3亿金币～3.5亿金币</t>
-  </si>
-  <si>
-    <t>3.5亿金币～4亿金币</t>
-  </si>
-  <si>
-    <t>4亿金币～4.5亿金币</t>
-  </si>
-  <si>
-    <t>4.5亿金币～5亿金币</t>
-  </si>
-  <si>
-    <t>5亿金币～5.5亿金币</t>
-  </si>
-  <si>
-    <t>xiaoxiaole_sanguo_award_big_award</t>
-  </si>
-  <si>
-    <t>lwzb_award_big_award</t>
-  </si>
-  <si>
-    <t>qiaoqiaole_cjj_award_big_award</t>
   </si>
 </sst>
 </file>
@@ -223,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -250,13 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,68 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -349,7 +291,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -361,6 +303,57 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,8 +373,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,49 +405,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,133 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +610,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -612,54 +630,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,6 +657,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,133 +716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,8 +1251,8 @@
   <sheetPr/>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2057,8 +2066,8 @@
       <c r="B45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>38</v>
+      <c r="C45" s="4">
+        <v>12000000</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4">
@@ -2075,8 +2084,8 @@
       <c r="B46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>38</v>
+      <c r="C46" s="4">
+        <v>12000000</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4">
@@ -2093,8 +2102,8 @@
       <c r="B47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>39</v>
+      <c r="C47" s="4">
+        <v>18000000</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4">
@@ -2111,8 +2120,8 @@
       <c r="B48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>39</v>
+      <c r="C48" s="4">
+        <v>18000000</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4">
@@ -2129,8 +2138,8 @@
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>40</v>
+      <c r="C49" s="4">
+        <v>24000000</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4">
@@ -2147,8 +2156,8 @@
       <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>40</v>
+      <c r="C50" s="4">
+        <v>24000000</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4">
@@ -2165,8 +2174,8 @@
       <c r="B51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>41</v>
+      <c r="C51" s="4">
+        <v>38000000</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4">
@@ -2183,8 +2192,8 @@
       <c r="B52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>41</v>
+      <c r="C52" s="4">
+        <v>38000000</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4">
@@ -2201,8 +2210,8 @@
       <c r="B53" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>42</v>
+      <c r="C53" s="4">
+        <v>42000000</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4">
@@ -2219,8 +2228,8 @@
       <c r="B54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>42</v>
+      <c r="C54" s="4">
+        <v>42000000</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4">
@@ -2235,10 +2244,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10000000</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4">
@@ -2253,10 +2262,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C56" s="4">
+        <v>10000000</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4">
@@ -2271,11 +2280,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E57" s="4">
         <v>421</v>
@@ -2289,11 +2298,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E58" s="4">
         <v>421</v>
@@ -2311,7 +2320,7 @@
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E59" s="4">
         <v>116</v>
@@ -2329,7 +2338,7 @@
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E60" s="4">
         <v>116</v>
@@ -2347,7 +2356,7 @@
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E61" s="4">
         <v>116</v>
@@ -2365,7 +2374,7 @@
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E62" s="4">
         <v>116</v>
@@ -2383,7 +2392,7 @@
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E63" s="4">
         <v>116</v>
@@ -2401,7 +2410,7 @@
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E64" s="4">
         <v>116</v>
@@ -2419,7 +2428,7 @@
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E65" s="4">
         <v>116</v>
@@ -2437,7 +2446,7 @@
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E66" s="4">
         <v>116</v>
@@ -2455,7 +2464,7 @@
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E67" s="4">
         <v>116</v>
@@ -2473,7 +2482,7 @@
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E68" s="4">
         <v>116</v>
@@ -2491,7 +2500,7 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E69" s="4">
         <v>116</v>
@@ -2509,7 +2518,7 @@
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E70" s="4">
         <v>116</v>
@@ -2527,7 +2536,7 @@
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E71" s="4">
         <v>116</v>
@@ -2545,7 +2554,7 @@
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E72" s="4">
         <v>116</v>
@@ -2563,7 +2572,7 @@
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E73" s="4">
         <v>116</v>
@@ -2581,7 +2590,7 @@
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E74" s="4">
         <v>116</v>
@@ -2599,7 +2608,7 @@
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E75" s="4">
         <v>116</v>
@@ -2617,7 +2626,7 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E76" s="4">
         <v>980</v>
@@ -2635,7 +2644,7 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E77" s="4">
         <v>1280</v>
@@ -2649,11 +2658,11 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E78" s="4">
         <v>950</v>
@@ -2671,7 +2680,7 @@
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E79" s="4">
         <v>1081</v>
@@ -2685,11 +2694,11 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E80" s="4">
         <v>1016</v>
@@ -2703,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4">
@@ -2721,10 +2730,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4">
@@ -2739,10 +2748,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4">
@@ -2757,10 +2766,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4">
@@ -2775,10 +2784,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4">
@@ -2793,10 +2802,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4">
@@ -2811,11 +2820,11 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E87" s="4">
         <v>421</v>

--- a/config_6.8/fake_broadcast_server.xlsx
+++ b/config_6.8/fake_broadcast_server.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -92,22 +92,13 @@
     <t>luck_lottery_1</t>
   </si>
   <si>
-    <t>4750福利券</t>
-  </si>
-  <si>
-    <t>40万福利券</t>
-  </si>
-  <si>
-    <t>1亿金币</t>
-  </si>
-  <si>
     <t>luck_lottery_2</t>
   </si>
   <si>
     <t>xiaoxiaole_award_big_award</t>
   </si>
   <si>
-    <t>10000000~500000000</t>
+    <t>10000000,500000000</t>
   </si>
   <si>
     <t>guess_award_big_award</t>
@@ -116,7 +107,7 @@
     <t>xiaoxiaole_shuihu_award_big_award</t>
   </si>
   <si>
-    <t>10000000~300000000</t>
+    <t>10000000,300000000</t>
   </si>
   <si>
     <t>xiaoxiaole_xiyou_award_big_award</t>
@@ -125,7 +116,7 @@
     <t>tantanle_award_big_award</t>
   </si>
   <si>
-    <t>10000000~200000000</t>
+    <t>10000000,200000000</t>
   </si>
   <si>
     <t>qiaoqiaole_award_big_award</t>
@@ -137,94 +128,67 @@
     <t>jykp_big_award</t>
   </si>
   <si>
-    <t>60000000~800000000</t>
-  </si>
-  <si>
-    <t>10000000~20000000</t>
-  </si>
-  <si>
-    <t>20000000~25000000</t>
-  </si>
-  <si>
-    <t>25000000~30000000</t>
-  </si>
-  <si>
-    <t>30000000~35000000</t>
-  </si>
-  <si>
-    <t>35000000~40000000</t>
-  </si>
-  <si>
-    <t>40000000~45000000</t>
-  </si>
-  <si>
-    <t>45000000~50000000</t>
-  </si>
-  <si>
-    <t>50000000~100000000</t>
-  </si>
-  <si>
-    <t>100000000~150000000</t>
-  </si>
-  <si>
-    <t>150000000~200000000</t>
-  </si>
-  <si>
-    <t>200000000~250000000</t>
-  </si>
-  <si>
-    <t>250000000~300000000</t>
-  </si>
-  <si>
-    <t>300000000~350000000</t>
-  </si>
-  <si>
-    <t>350000000~400000000</t>
-  </si>
-  <si>
-    <t>400000000~450000000</t>
-  </si>
-  <si>
-    <t>450000000~500000000</t>
-  </si>
-  <si>
-    <t>500000000~550000000</t>
-  </si>
-  <si>
-    <t>1000万~5亿金币</t>
+    <t>60000000,800000000</t>
+  </si>
+  <si>
+    <t>10000000,20000000</t>
+  </si>
+  <si>
+    <t>20000000,25000000</t>
+  </si>
+  <si>
+    <t>25000000,30000000</t>
+  </si>
+  <si>
+    <t>30000000,35000000</t>
+  </si>
+  <si>
+    <t>35000000,40000000</t>
+  </si>
+  <si>
+    <t>40000000,45000000</t>
+  </si>
+  <si>
+    <t>45000000,50000000</t>
+  </si>
+  <si>
+    <t>50000000,100000000</t>
+  </si>
+  <si>
+    <t>100000000,150000000</t>
+  </si>
+  <si>
+    <t>150000000,200000000</t>
+  </si>
+  <si>
+    <t>200000000,250000000</t>
+  </si>
+  <si>
+    <t>250000000,300000000</t>
+  </si>
+  <si>
+    <t>300000000,350000000</t>
+  </si>
+  <si>
+    <t>350000000,400000000</t>
+  </si>
+  <si>
+    <t>400000000,450000000</t>
+  </si>
+  <si>
+    <t>450000000,500000000</t>
+  </si>
+  <si>
+    <t>500000000,550000000</t>
   </si>
   <si>
     <t>xiaoxiaole_sanguo_award_big_award</t>
   </si>
   <si>
-    <t>1000万～3亿金币</t>
-  </si>
-  <si>
     <t>lwzb_award_big_award</t>
   </si>
   <si>
     <t>qiaoqiaole_cjj_award_big_award</t>
-  </si>
-  <si>
-    <t>1200万金币</t>
-  </si>
-  <si>
-    <t>1800万金币</t>
-  </si>
-  <si>
-    <t>2400万金币</t>
-  </si>
-  <si>
-    <t>3800万金币</t>
-  </si>
-  <si>
-    <t>4200万金币</t>
-  </si>
-  <si>
-    <t>1000万金币</t>
-  </si>
-  <si>
-    <t>6000万～8亿金币</t>
   </si>
 </sst>
 </file>
@@ -233,9 +197,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -259,9 +223,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,25 +307,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,36 +321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,15 +331,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,22 +347,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -390,7 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,49 +369,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,127 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,20 +565,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,11 +587,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,17 +635,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,15 +660,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -704,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,137 +680,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,6 +824,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1233,7 +1200,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1252,7 +1219,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1275,7 +1242,7 @@
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1295,7 +1262,7 @@
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="4">
         <v>116</v>
       </c>
@@ -1313,7 +1280,7 @@
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="4">
         <v>116</v>
       </c>
@@ -1331,7 +1298,7 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="4">
         <v>116</v>
       </c>
@@ -1349,7 +1316,7 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="4">
         <v>116</v>
       </c>
@@ -1367,7 +1334,7 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="4">
         <v>116</v>
       </c>
@@ -1385,7 +1352,7 @@
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="4">
         <v>116</v>
       </c>
@@ -1403,7 +1370,7 @@
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="4">
         <v>116</v>
       </c>
@@ -1421,7 +1388,7 @@
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4">
         <v>116</v>
       </c>
@@ -1439,7 +1406,7 @@
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="4">
         <v>116</v>
       </c>
@@ -1457,7 +1424,7 @@
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="4">
         <v>116</v>
       </c>
@@ -1475,7 +1442,7 @@
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4">
         <v>116</v>
       </c>
@@ -1493,7 +1460,7 @@
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4">
         <v>116</v>
       </c>
@@ -1511,7 +1478,7 @@
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="4">
         <v>116</v>
       </c>
@@ -1529,7 +1496,7 @@
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="4">
         <v>116</v>
       </c>
@@ -1547,7 +1514,7 @@
       <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="4">
         <v>116</v>
       </c>
@@ -1565,7 +1532,7 @@
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4">
         <v>116</v>
       </c>
@@ -1583,7 +1550,7 @@
       <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4">
         <v>116</v>
       </c>
@@ -1601,7 +1568,7 @@
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="4">
         <v>116</v>
       </c>
@@ -1619,7 +1586,7 @@
       <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="4">
         <v>116</v>
       </c>
@@ -1637,7 +1604,7 @@
       <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="4">
         <v>116</v>
       </c>
@@ -1655,7 +1622,7 @@
       <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="4">
         <v>116</v>
       </c>
@@ -1670,10 +1637,10 @@
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="C23" s="4">
+        <v>4750</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="4">
         <v>116</v>
       </c>
@@ -1688,10 +1655,10 @@
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="C24" s="4">
+        <v>4750</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="4">
         <v>116</v>
       </c>
@@ -1706,10 +1673,10 @@
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="4"/>
+      <c r="C25" s="4">
+        <v>400000</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="4">
         <v>116</v>
       </c>
@@ -1724,10 +1691,10 @@
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="4"/>
+      <c r="C26" s="4">
+        <v>400000</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="4">
         <v>116</v>
       </c>
@@ -1742,10 +1709,10 @@
       <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="4"/>
+      <c r="C27" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="4">
         <v>116</v>
       </c>
@@ -1760,10 +1727,10 @@
       <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="4"/>
+      <c r="C28" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="4">
         <v>116</v>
       </c>
@@ -1776,12 +1743,12 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="C29" s="4">
+        <v>4750</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="4">
         <v>116</v>
       </c>
@@ -1794,12 +1761,12 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="C30" s="4">
+        <v>4750</v>
+      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="4">
         <v>116</v>
       </c>
@@ -1812,12 +1779,12 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C31" s="4">
+        <v>400000</v>
+      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="4">
         <v>116</v>
       </c>
@@ -1830,12 +1797,12 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C32" s="4">
+        <v>400000</v>
+      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="4">
         <v>116</v>
       </c>
@@ -1848,12 +1815,12 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C33" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="4">
         <v>116</v>
       </c>
@@ -1866,12 +1833,12 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C34" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="4">
         <v>116</v>
       </c>
@@ -1884,11 +1851,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>30</v>
+      <c r="D35" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E35" s="4">
         <v>2081</v>
@@ -1902,11 +1869,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>30</v>
+      <c r="D36" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E36" s="4">
         <v>2081</v>
@@ -1920,11 +1887,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>30</v>
+      <c r="D37" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E37" s="4">
         <v>2081</v>
@@ -1938,11 +1905,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>30</v>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E38" s="4">
         <v>2081</v>
@@ -1956,11 +1923,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>33</v>
+      <c r="D39" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E39" s="4">
         <v>520</v>
@@ -1974,11 +1941,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>33</v>
+      <c r="D40" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E40" s="4">
         <v>520</v>
@@ -1992,11 +1959,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>33</v>
+      <c r="D41" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E41" s="4">
         <v>520</v>
@@ -2010,11 +1977,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>33</v>
+      <c r="D42" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E42" s="4">
         <v>520</v>
@@ -2028,11 +1995,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>36</v>
+      <c r="D43" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E43" s="4">
         <v>216</v>
@@ -2046,11 +2013,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>36</v>
+      <c r="D44" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E44" s="4">
         <v>216</v>
@@ -2064,12 +2031,12 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C45" s="4">
         <v>12000000</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="4">
         <v>116</v>
       </c>
@@ -2082,12 +2049,12 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C46" s="4">
         <v>12000000</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="4">
         <v>116</v>
       </c>
@@ -2100,12 +2067,12 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C47" s="4">
         <v>18000000</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="4">
         <v>116</v>
       </c>
@@ -2118,12 +2085,12 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="4">
         <v>18000000</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="4">
         <v>116</v>
       </c>
@@ -2136,12 +2103,12 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49" s="4">
         <v>24000000</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="4">
         <v>116</v>
       </c>
@@ -2154,12 +2121,12 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C50" s="4">
         <v>24000000</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="4">
         <v>116</v>
       </c>
@@ -2172,12 +2139,12 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C51" s="4">
         <v>38000000</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="4">
         <v>116</v>
       </c>
@@ -2190,12 +2157,12 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C52" s="4">
         <v>38000000</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="4">
         <v>116</v>
       </c>
@@ -2208,12 +2175,12 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C53" s="4">
         <v>42000000</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="4">
         <v>116</v>
       </c>
@@ -2226,12 +2193,12 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C54" s="4">
         <v>42000000</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="4">
         <v>116</v>
       </c>
@@ -2244,12 +2211,12 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C55" s="4">
         <v>10000000</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="4">
         <v>578</v>
       </c>
@@ -2262,12 +2229,12 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C56" s="4">
         <v>10000000</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="4">
         <v>578</v>
       </c>
@@ -2280,11 +2247,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4" t="s">
-        <v>40</v>
+      <c r="D57" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E57" s="4">
         <v>421</v>
@@ -2298,11 +2265,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="4" t="s">
-        <v>40</v>
+      <c r="D58" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E58" s="4">
         <v>421</v>
@@ -2316,11 +2283,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="4" t="s">
-        <v>41</v>
+      <c r="D59" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E59" s="4">
         <v>116</v>
@@ -2334,11 +2301,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="4" t="s">
-        <v>42</v>
+      <c r="D60" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E60" s="4">
         <v>116</v>
@@ -2352,11 +2319,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="4" t="s">
-        <v>43</v>
+      <c r="D61" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E61" s="4">
         <v>116</v>
@@ -2370,11 +2337,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4" t="s">
-        <v>44</v>
+      <c r="D62" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E62" s="4">
         <v>116</v>
@@ -2388,11 +2355,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="4" t="s">
-        <v>45</v>
+      <c r="D63" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E63" s="4">
         <v>116</v>
@@ -2406,11 +2373,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="4" t="s">
-        <v>46</v>
+      <c r="D64" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E64" s="4">
         <v>116</v>
@@ -2424,11 +2391,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
-        <v>47</v>
+      <c r="D65" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E65" s="4">
         <v>116</v>
@@ -2442,11 +2409,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="4" t="s">
-        <v>48</v>
+      <c r="D66" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E66" s="4">
         <v>116</v>
@@ -2460,11 +2427,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="D67" s="4" t="s">
-        <v>49</v>
+      <c r="D67" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E67" s="4">
         <v>116</v>
@@ -2478,11 +2445,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C68" s="4"/>
-      <c r="D68" s="4" t="s">
-        <v>50</v>
+      <c r="D68" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E68" s="4">
         <v>116</v>
@@ -2496,11 +2463,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
-        <v>51</v>
+      <c r="D69" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E69" s="4">
         <v>116</v>
@@ -2514,11 +2481,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C70" s="4"/>
-      <c r="D70" s="4" t="s">
-        <v>52</v>
+      <c r="D70" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E70" s="4">
         <v>116</v>
@@ -2532,11 +2499,11 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>53</v>
+      <c r="D71" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E71" s="4">
         <v>116</v>
@@ -2550,11 +2517,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="4" t="s">
-        <v>54</v>
+      <c r="D72" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E72" s="4">
         <v>116</v>
@@ -2568,11 +2535,11 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C73" s="4"/>
-      <c r="D73" s="4" t="s">
-        <v>55</v>
+      <c r="D73" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E73" s="4">
         <v>116</v>
@@ -2586,11 +2553,11 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C74" s="4"/>
-      <c r="D74" s="4" t="s">
-        <v>56</v>
+      <c r="D74" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E74" s="4">
         <v>116</v>
@@ -2604,11 +2571,11 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="4" t="s">
-        <v>57</v>
+      <c r="D75" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E75" s="4">
         <v>116</v>
@@ -2622,11 +2589,11 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="4" t="s">
-        <v>58</v>
+      <c r="D76" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E76" s="4">
         <v>980</v>
@@ -2640,11 +2607,11 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="4" t="s">
-        <v>58</v>
+      <c r="D77" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E77" s="4">
         <v>1280</v>
@@ -2658,11 +2625,11 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C78" s="4"/>
-      <c r="D78" s="4" t="s">
-        <v>60</v>
+      <c r="D78" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E78" s="4">
         <v>950</v>
@@ -2676,11 +2643,11 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="4" t="s">
-        <v>60</v>
+      <c r="D79" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E79" s="4">
         <v>1081</v>
@@ -2694,11 +2661,11 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="4" t="s">
-        <v>58</v>
+      <c r="D80" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E80" s="4">
         <v>1016</v>
@@ -2712,12 +2679,12 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C81" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="D81" s="5"/>
       <c r="E81" s="4">
         <v>116</v>
       </c>
@@ -2730,12 +2697,12 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C82" s="4">
+        <v>18000000</v>
+      </c>
+      <c r="D82" s="5"/>
       <c r="E82" s="4">
         <v>116</v>
       </c>
@@ -2748,12 +2715,12 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C83" s="4">
+        <v>24000000</v>
+      </c>
+      <c r="D83" s="5"/>
       <c r="E83" s="4">
         <v>116</v>
       </c>
@@ -2766,12 +2733,12 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D84" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C84" s="4">
+        <v>38000000</v>
+      </c>
+      <c r="D84" s="5"/>
       <c r="E84" s="4">
         <v>116</v>
       </c>
@@ -2784,12 +2751,12 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C85" s="4">
+        <v>42000000</v>
+      </c>
+      <c r="D85" s="5"/>
       <c r="E85" s="4">
         <v>116</v>
       </c>
@@ -2802,12 +2769,12 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C86" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="D86" s="5"/>
       <c r="E86" s="4">
         <v>573</v>
       </c>
@@ -2820,11 +2787,11 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C87" s="4"/>
-      <c r="D87" s="4" t="s">
-        <v>69</v>
+      <c r="D87" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E87" s="4">
         <v>421</v>
@@ -2836,14 +2803,14 @@
     <row r="88" spans="2:6">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
